--- a/template.xlsx
+++ b/template.xlsx
@@ -89,13 +89,13 @@
     <t xml:space="preserve">от Заказчика:</t>
   </si>
   <si>
-    <t xml:space="preserve">Инженер 1 категории</t>
+    <t xml:space="preserve">Инженер 2 категории</t>
   </si>
   <si>
     <t xml:space="preserve">(должность)</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                / Мартынов Е.Б. /</t>
+    <t xml:space="preserve">                                             /                               /</t>
   </si>
   <si>
     <t xml:space="preserve">Подпись, расшифровка</t>
@@ -542,9 +542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1743840</xdr:colOff>
+      <xdr:colOff>1743480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>342000</xdr:rowOff>
+      <xdr:rowOff>341640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,7 +558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="100080" y="0"/>
-          <a:ext cx="6840360" cy="532440"/>
+          <a:ext cx="6840000" cy="532080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,8 +580,8 @@
   </sheetPr>
   <dimension ref="A2:L149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M141" activeCellId="0" sqref="M141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -89,13 +89,13 @@
     <t xml:space="preserve">от Заказчика:</t>
   </si>
   <si>
-    <t xml:space="preserve">Инженер 2 категории</t>
+    <t xml:space="preserve">Инженер 1 категории</t>
   </si>
   <si>
     <t xml:space="preserve">(должность)</t>
   </si>
   <si>
-    <t xml:space="preserve">                                             /                               /</t>
+    <t xml:space="preserve">                                             / Е.Б. Мартынов /</t>
   </si>
   <si>
     <t xml:space="preserve">Подпись, расшифровка</t>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -259,6 +259,27 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -298,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,6 +412,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -423,15 +456,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,7 +480,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,57 +564,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1743480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>341640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Рисунок 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="100080" y="0"/>
-          <a:ext cx="6840000" cy="532080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L149"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,134 +591,159 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="str">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="str">
         <f aca="true">CONCATENATE("Технический акт оказанных услуг ___.___.",YEAR(TODAY()),"г.")</f>
         <v>Технический акт оказанных услуг ___.___.2018г.</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="str">
+        <f aca="true">CONCATENATE("от '____'___________",YEAR(TODAY()),"г.")</f>
+        <v>от '____'___________2018г.</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10" t="str">
-        <f aca="true">CONCATENATE("от '____'___________",YEAR(TODAY()),"г.")</f>
-        <v>от '____'___________2018г.</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="B10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2156,319 +2172,301 @@
       <c r="K121" s="19"/>
       <c r="L121" s="18"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="19"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="18"/>
-    </row>
+    <row r="122" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="19"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="18"/>
-    </row>
-    <row r="124" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B123" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+    </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B125" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="23"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="25"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="21"/>
+      <c r="B126" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" s="23"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="25"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" s="23"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="25"/>
+    </row>
+    <row r="128" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="22" t="n">
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="30"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22"/>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="22"/>
-    </row>
-    <row r="130" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="30"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="30"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="30"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="30"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="27"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="27"/>
+      <c r="B137" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="32"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="29"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="15" t="str">
+      <c r="B139" s="15" t="str">
         <f aca="true">CONCATENATE("Время и дата окончания оказания услуг: ______час______мин.,   _____.__________. ",YEAR(TODAY()),"г.")</f>
         <v>Время и дата окончания оказания услуг: ______час______мин.,   _____.__________. 2018г.</v>
       </c>
     </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="I141" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="I142" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="33"/>
+      <c r="K142" s="33"/>
+    </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="I143" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="I144" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J144" s="30"/>
-      <c r="K144" s="30"/>
+      <c r="B143" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+    </row>
+    <row r="144" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="I144" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="I145" s="32"/>
-      <c r="J145" s="32"/>
-      <c r="K145" s="32"/>
-    </row>
-    <row r="146" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="I146" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J146" s="34"/>
-      <c r="K146" s="34"/>
+      <c r="B145" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="39"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="I146" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J146" s="40"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="I148" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="38"/>
-      <c r="I149" s="39" t="s">
+      <c r="B147" s="41"/>
+      <c r="I147" s="42" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="375">
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="E8:K8"/>
+  <mergeCells count="372">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:K11"/>
@@ -2802,17 +2800,12 @@
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="E121:H121"/>
     <mergeCell ref="I121:K121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:H122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="C128:K128"/>
-    <mergeCell ref="C129:K129"/>
-    <mergeCell ref="B131:K132"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="B129:K130"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="G131:J131"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="G132:J132"/>
     <mergeCell ref="C133:F133"/>
     <mergeCell ref="G133:J133"/>
     <mergeCell ref="C134:F134"/>
@@ -2821,21 +2814,17 @@
     <mergeCell ref="G135:J135"/>
     <mergeCell ref="C136:F136"/>
     <mergeCell ref="G136:J136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="G137:J137"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="G138:J138"/>
-    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="I141:K141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="B143:F143"/>
     <mergeCell ref="I143:K143"/>
-    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B144:F144"/>
     <mergeCell ref="I144:K144"/>
     <mergeCell ref="B145:F145"/>
-    <mergeCell ref="I145:K145"/>
     <mergeCell ref="B146:F146"/>
     <mergeCell ref="I146:K146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="I148:K148"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.559722222222222" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2844,6 +2833,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>